--- a/Resources/productPrice.xlsx
+++ b/Resources/productPrice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Code*</t>
   </si>
@@ -90,43 +90,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>2027-09-19</t>
-  </si>
-  <si>
-    <t>EBF</t>
-  </si>
-  <si>
-    <t>BBF</t>
-  </si>
-  <si>
-    <t>A49</t>
-  </si>
-  <si>
-    <t>00A</t>
-  </si>
-  <si>
-    <t>DDA</t>
-  </si>
-  <si>
-    <t>2EF</t>
-  </si>
-  <si>
-    <t>DC2</t>
-  </si>
-  <si>
-    <t>E34</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>0300</t>
-  </si>
-  <si>
-    <t>5476</t>
-  </si>
-  <si>
-    <t>5482</t>
+    <t>2025-09-19</t>
   </si>
 </sst>
 </file>
@@ -450,7 +414,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,16 +514,16 @@
         <v>23</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>7626.0</v>
+        <v>8003.0</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>7626.0</v>
+        <v>8004.0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>7626.0</v>
+        <v>8004.0</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>7635.0</v>
+        <v>8004.0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>

--- a/Resources/productPrice.xlsx
+++ b/Resources/productPrice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Code*</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>2025-09-19</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
   </si>
 </sst>
 </file>
@@ -511,19 +514,19 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>8003.0</v>
+        <v>5655.0</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>8004.0</v>
+        <v>5655.0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>8004.0</v>
+        <v>5655.0</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>8004.0</v>
+        <v>5655.0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>

--- a/Resources/productPrice.xlsx
+++ b/Resources/productPrice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Code*</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>2025-09-23</t>
   </si>
 </sst>
 </file>
@@ -514,19 +517,19 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>5655.0</v>
+        <v>2969.0</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>5655.0</v>
+        <v>2969.0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>5655.0</v>
+        <v>2969.0</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>5655.0</v>
+        <v>2969.0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>

--- a/Resources/productPrice.xlsx
+++ b/Resources/productPrice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Code*</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>2025-09-23</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
   </si>
 </sst>
 </file>
@@ -517,19 +520,19 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>2969.0</v>
+        <v>7947.0</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2969.0</v>
+        <v>7947.0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>2969.0</v>
+        <v>7947.0</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>2969.0</v>
+        <v>7947.0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>

--- a/Resources/productPrice.xlsx
+++ b/Resources/productPrice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Code*</t>
   </si>
@@ -520,16 +520,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>2969.0</v>
+        <v>9082.0</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2969.0</v>
+        <v>9082.0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>2969.0</v>
+        <v>9082.0</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>2969.0</v>
+        <v>9084.0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>

--- a/Resources/productPrice.xlsx
+++ b/Resources/productPrice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Code*</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>2025-09-23</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
   </si>
 </sst>
 </file>
@@ -517,19 +526,19 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>9082.0</v>
+        <v>5889.0</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>9082.0</v>
+        <v>5895.0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>9082.0</v>
+        <v>5895.0</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>9084.0</v>
+        <v>5896.0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>

--- a/Resources/productPrice.xlsx
+++ b/Resources/productPrice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
   <si>
     <t>Code*</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>2025-09-27</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>2025-09-29</t>
   </si>
 </sst>
 </file>
@@ -526,19 +535,19 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>5889.0</v>
+        <v>9879.0</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>5895.0</v>
+        <v>9879.0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>5895.0</v>
+        <v>9880.0</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>5896.0</v>
+        <v>9880.0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
